--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>@default</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
   <si>
     <t>Year</t>
@@ -1384,7 +1387,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -1401,143 +1404,146 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1546,7 +1552,7 @@
         <v>60011000501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>600110005</v>
@@ -1561,7 +1567,7 @@
         <v>60011000502</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>600110005</v>
@@ -1576,7 +1582,7 @@
         <v>60011000503</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>600110005</v>
@@ -1591,7 +1597,7 @@
         <v>60011000504</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>600110005</v>
@@ -1606,7 +1612,7 @@
         <v>60011000505</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>600110005</v>
@@ -1621,7 +1627,7 @@
         <v>60011000506</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>600110005</v>
@@ -1636,7 +1642,7 @@
         <v>60011000507</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>600110005</v>
@@ -1651,7 +1657,7 @@
         <v>60011000508</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>600110005</v>
@@ -1666,7 +1672,7 @@
         <v>60011000509</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>600110005</v>
@@ -1681,7 +1687,7 @@
         <v>60011000510</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>600110005</v>
@@ -1696,7 +1702,7 @@
         <v>60011000511</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>600110005</v>
@@ -1707,497 +1713,497 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2206,7 +2212,7 @@
         <v>120011000201</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C122" s="1">
         <v>1200110002</v>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/ReignTitle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView windowWidth="22188" windowHeight="8604"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="141">
   <si>
     <t>@default</t>
   </si>
@@ -434,12 +434,15 @@
   </si>
   <si>
     <t>貞觀</t>
+  </si>
+  <si>
+    <t>乾隆</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -461,34 +464,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -502,14 +477,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,6 +516,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,7 +581,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,49 +617,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,121 +755,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,21 +808,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,6 +840,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,148 +913,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,52 +1071,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1384,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -2221,6 +2224,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <f>INT(C124*100+D124)</f>
+        <v>170011000601</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1700110006</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
